--- a/tmp/IOメモ.xlsx
+++ b/tmp/IOメモ.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7BFDD8-D2E4-4CD2-A223-7F21A5105F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19835772-969E-4D70-B059-D6EC6E46D93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="RANDOM BOXメモ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$44:$I$330</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="569">
   <si>
     <t>IO_198109</t>
   </si>
@@ -3027,6 +3027,165 @@
   </si>
   <si>
     <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>238-243</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>223-225</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P261</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト・コピー・プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マシン語テープコピー</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年5月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MZ-80B活用研究</t>
+  </si>
+  <si>
+    <t>MZ-80B活用研究</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平安京エイリアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年6月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELF RELOCATABLE DEBUGGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年7月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K/C-B テープフォーマットの変換法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル付き逆アセンブラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLOCKくずし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年8月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年10月号</t>
+  </si>
+  <si>
+    <t>SPACE INVADERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年11月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフィック花札・こいこい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1981年12月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUCK MAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TV黒板</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BACKGAMMON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1982年1月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRAZY CLIMBER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BASIC VOICE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1982年3月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MZ/KC→MZBマシン語コンバータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクタ・グラフィック混在コピープログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WICS 80B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1982年4月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DONKEY KONGモドキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1982年5月号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラネタリウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VOICE_SYSTEM_80B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDF_270-273</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEWモニタ [K/Cのマシン語ソフトがそのまま走る]</t>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3034,7 +3193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3072,6 +3231,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3105,7 +3292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3133,6 +3320,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3418,2824 +3609,3129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="50.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>551</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>558</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>564</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>259</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" t="s">
+        <v>533</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>534</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>535</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>253</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F49" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
         <v>263</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>567</v>
+      </c>
+      <c r="D51" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>524</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B53" t="s">
         <v>519</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C53" t="s">
         <v>520</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D53" t="s">
         <v>521</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E53" t="s">
         <v>522</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F53" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>414</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E54" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>427</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D55" t="s">
         <v>428</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E55" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
+    <row r="56" spans="1:9">
+      <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>484</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B59" t="s">
         <v>132</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D59" t="s">
         <v>485</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E59" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
+    <row r="60" spans="1:9">
+      <c r="A60">
         <v>322</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D60" t="s">
         <v>130</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E60" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
+    <row r="61" spans="1:9">
+      <c r="A61">
         <v>330</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B61" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D61" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E61" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F61" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
         <v>482</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E64" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>486</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>344</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="37.5">
-      <c r="A45" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" t="s">
-        <v>410</v>
-      </c>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="37.5">
-      <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="37.5">
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1">
-      <c r="B48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>419</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="37.5">
-      <c r="A52">
-        <v>361</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="37.5">
-      <c r="A56">
-        <v>317</v>
-      </c>
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="13" customFormat="1">
-      <c r="B57" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="37.5">
-      <c r="A58">
-        <v>346</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="37.5">
-      <c r="B60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="54.75">
-      <c r="A63" t="s">
-        <v>429</v>
-      </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="37.5">
-      <c r="B64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:7">
       <c r="B65" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>408</v>
-      </c>
       <c r="B66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>398</v>
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>530</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>415</v>
-      </c>
       <c r="B67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>364</v>
-      </c>
-      <c r="B68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>364</v>
-      </c>
-      <c r="B69" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" ht="37.5">
-      <c r="B70" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="F70" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="B71" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
-      </c>
-      <c r="F71" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G71" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="37.5">
-      <c r="A72">
-        <v>270</v>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>525</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
-      </c>
-      <c r="F72" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73">
-        <v>270</v>
-      </c>
       <c r="B73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" t="s">
-        <v>164</v>
+        <v>64</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="3"/>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B76" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" t="s">
-        <v>432</v>
-      </c>
-      <c r="E76" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="C77" s="3"/>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" ht="37.5">
-      <c r="A79" t="s">
-        <v>487</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="B79" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>488</v>
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
       </c>
       <c r="E79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="B80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" t="s">
-        <v>180</v>
-      </c>
-      <c r="E80" t="s">
-        <v>181</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="B81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" t="s">
-        <v>185</v>
-      </c>
-      <c r="F81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="2" customFormat="1">
-      <c r="B82" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>188</v>
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>191</v>
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="3"/>
+      <c r="A84">
+        <v>344</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" t="s">
-        <v>412</v>
-      </c>
-      <c r="E86" t="s">
-        <v>193</v>
-      </c>
-      <c r="G86" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="37.5">
-      <c r="B87" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="11" t="s">
+    <row r="88" spans="1:7" ht="37.5">
+      <c r="A88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="B88" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" t="s">
-        <v>50</v>
-      </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="37.5">
       <c r="B89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" t="s">
-        <v>50</v>
+        <v>157</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>156</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="37.5">
       <c r="B90" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" t="s">
-        <v>207</v>
+        <v>95</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>209</v>
+        <v>99</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="2" customFormat="1">
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="B93" t="s">
-        <v>212</v>
-      </c>
-      <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" t="s">
-        <v>210</v>
-      </c>
-      <c r="E93" t="s">
-        <v>211</v>
-      </c>
-      <c r="F93" t="s">
-        <v>239</v>
-      </c>
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>419</v>
+      </c>
       <c r="B94" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>191</v>
+        <v>114</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E94" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>413</v>
+        <v>116</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="37.5">
+      <c r="A95">
+        <v>361</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>218</v>
+        <v>111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s">
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
-      </c>
-      <c r="F95" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="37.5">
+        <v>113</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="B96" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>221</v>
+        <v>135</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" t="s">
+        <v>138</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="C97" s="11"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" s="11"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="B99" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>191</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="37.5">
+      <c r="A99">
+        <v>317</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="C100" s="11"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>227</v>
-      </c>
-      <c r="C101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" ht="37.5">
+        <v>125</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="13" customFormat="1">
+      <c r="B100" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="37.5">
+      <c r="A101">
+        <v>346</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="B102" t="s">
-        <v>229</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" t="s">
-        <v>231</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>264</v>
+        <v>127</v>
+      </c>
+      <c r="F102" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="37.5">
       <c r="B103" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
         <v>50</v>
       </c>
-      <c r="D103" t="s">
-        <v>233</v>
-      </c>
-      <c r="E103" t="s">
-        <v>211</v>
+      <c r="D103" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="37.5">
-      <c r="A104" t="s">
-        <v>465</v>
-      </c>
-      <c r="B104" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="54.75">
+      <c r="A106" t="s">
+        <v>429</v>
+      </c>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E104" t="s">
-        <v>235</v>
-      </c>
-      <c r="G104" s="4" t="s">
+      <c r="D106" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="B105" t="s">
-        <v>236</v>
-      </c>
-      <c r="C105" t="s">
+    <row r="107" spans="1:7" ht="37.5">
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" t="s">
+        <v>144</v>
+      </c>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="s">
         <v>50</v>
       </c>
-      <c r="D105" t="s">
-        <v>237</v>
-      </c>
-      <c r="E105" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="B106" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" t="s">
-        <v>50</v>
-      </c>
-      <c r="D106" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="C107" s="11"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="11"/>
+      <c r="D108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>244</v>
+        <v>398</v>
+      </c>
+      <c r="D109" t="s">
+        <v>407</v>
       </c>
       <c r="E109" t="s">
-        <v>245</v>
-      </c>
-      <c r="F109" t="s">
-        <v>246</v>
+        <v>149</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>415</v>
+      </c>
       <c r="B110" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" t="s">
-        <v>50</v>
+        <v>150</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>416</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
-      </c>
-      <c r="F110" t="s">
-        <v>249</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>364</v>
+      </c>
+      <c r="B111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" t="s">
+        <v>152</v>
+      </c>
+      <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>263</v>
-      </c>
-      <c r="C112" s="3"/>
+      <c r="A112">
+        <v>364</v>
+      </c>
+      <c r="B112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" t="s">
+        <v>152</v>
+      </c>
+      <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="37.5">
       <c r="B113" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D113" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>278</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:7">
       <c r="B114" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="E114" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>481</v>
+        <v>152</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="37.5">
+      <c r="A115">
+        <v>270</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>165</v>
       </c>
       <c r="E115" t="s">
-        <v>257</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="37.5">
+        <v>164</v>
+      </c>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>270</v>
+      </c>
       <c r="B116" t="s">
-        <v>260</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>56</v>
+        <v>162</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="E116" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="B117" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D117" t="s">
-        <v>262</v>
-      </c>
-      <c r="E117" t="s">
-        <v>283</v>
-      </c>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>173</v>
+      </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>271</v>
-      </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" ht="37.5">
-      <c r="B120" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C120" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>432</v>
+      </c>
+      <c r="E119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" ht="37.5">
+      <c r="A122" t="s">
+        <v>487</v>
+      </c>
+      <c r="B122" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D120" t="s">
-        <v>265</v>
-      </c>
-      <c r="E120" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="B121" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="D122" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="B123" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" t="s">
+        <v>181</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="B124" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" t="s">
+        <v>185</v>
+      </c>
+      <c r="F124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="2" customFormat="1">
+      <c r="B125" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="B126" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D121" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="B122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" t="s">
-        <v>50</v>
-      </c>
-      <c r="D122" t="s">
-        <v>268</v>
-      </c>
-      <c r="E122" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>280</v>
-      </c>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>401</v>
-      </c>
-      <c r="B124" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D124" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124" t="s">
-        <v>274</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" t="s">
-        <v>275</v>
-      </c>
-      <c r="D125" t="s">
-        <v>276</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="37.5">
-      <c r="B126" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D126" t="s">
-        <v>282</v>
-      </c>
-      <c r="E126" t="s">
-        <v>283</v>
-      </c>
-    </row>
     <row r="127" spans="1:7">
-      <c r="B127" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127" t="s">
-        <v>279</v>
-      </c>
-      <c r="E127" t="s">
-        <v>283</v>
-      </c>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="B128" s="3"/>
+      <c r="A128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>294</v>
-      </c>
-      <c r="B129" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="B129" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s">
+        <v>412</v>
+      </c>
+      <c r="E129" t="s">
+        <v>193</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="37.5">
-      <c r="B130" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="B131" t="s">
+        <v>198</v>
+      </c>
+      <c r="C131" t="s">
         <v>50</v>
       </c>
-      <c r="D130" t="s">
-        <v>285</v>
-      </c>
-      <c r="E130" t="s">
-        <v>286</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="37.5">
-      <c r="B131" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C131" s="11" t="s">
+      <c r="D131" t="s">
+        <v>199</v>
+      </c>
+      <c r="E131" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="B132" t="s">
+        <v>198</v>
+      </c>
+      <c r="C132" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="B133" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" t="s">
+        <v>207</v>
+      </c>
+      <c r="E133" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" t="s">
+        <v>210</v>
+      </c>
+      <c r="E136" t="s">
+        <v>211</v>
+      </c>
+      <c r="F136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="B137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>214</v>
+      </c>
+      <c r="E137" t="s">
+        <v>215</v>
+      </c>
+      <c r="F137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>413</v>
+      </c>
+      <c r="B138" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E138" t="s">
+        <v>219</v>
+      </c>
+      <c r="F138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="37.5">
+      <c r="B139" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D131" t="s">
-        <v>288</v>
-      </c>
-      <c r="E131" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>480</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E132" t="s">
-        <v>292</v>
-      </c>
-      <c r="F132" t="s">
-        <v>293</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="B133" s="3"/>
-      <c r="C133" s="11"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
-        <v>309</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="11"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="B135" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C135" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" t="s">
-        <v>297</v>
-      </c>
-      <c r="F135" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="B136" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D136" t="s">
-        <v>302</v>
-      </c>
-      <c r="E136" t="s">
-        <v>303</v>
-      </c>
-      <c r="F136" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C137" t="s">
-        <v>50</v>
-      </c>
-      <c r="D137" t="s">
-        <v>301</v>
-      </c>
-      <c r="E137" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="B138" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" t="s">
-        <v>50</v>
-      </c>
-      <c r="D138" t="s">
-        <v>306</v>
-      </c>
-      <c r="E138" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="B139" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D139" t="s">
-        <v>311</v>
+      <c r="D139" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="E139" t="s">
-        <v>312</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>530</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="B140" s="3"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>313</v>
-      </c>
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" ht="37.5">
-      <c r="B142" s="3" t="s">
-        <v>315</v>
+        <v>224</v>
+      </c>
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="B142" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="D142" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="E142" t="s">
-        <v>316</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="B143" s="3"/>
-      <c r="D143" t="s">
-        <v>317</v>
-      </c>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>321</v>
-      </c>
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="B146" s="3" t="s">
-        <v>318</v>
+      <c r="A144" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:7" ht="37.5">
+      <c r="B145" t="s">
+        <v>229</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" t="s">
+        <v>230</v>
+      </c>
+      <c r="E145" t="s">
+        <v>231</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="37.5">
+      <c r="B146" t="s">
+        <v>232</v>
       </c>
       <c r="C146" t="s">
         <v>50</v>
       </c>
       <c r="D146" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="E146" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="B147" s="3"/>
-      <c r="C147" t="s">
-        <v>326</v>
-      </c>
-      <c r="D147" t="s">
-        <v>323</v>
+        <v>211</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="37.5">
+      <c r="A147" t="s">
+        <v>465</v>
+      </c>
+      <c r="B147" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E147" t="s">
-        <v>324</v>
+        <v>235</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="B148" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
         <v>50</v>
       </c>
       <c r="D148" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="B149" t="s">
-        <v>329</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>191</v>
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>50</v>
       </c>
       <c r="D149" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="E149" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="B150" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D150" t="s">
-        <v>333</v>
-      </c>
-      <c r="E150" t="s">
-        <v>334</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>530</v>
-      </c>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="B151" s="3"/>
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" s="3"/>
+        <v>424</v>
+      </c>
+      <c r="B152" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E152" t="s">
+        <v>245</v>
+      </c>
+      <c r="F152" t="s">
+        <v>246</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="B153" s="3">
-        <v>367</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>191</v>
+      <c r="B153" t="s">
+        <v>248</v>
+      </c>
+      <c r="C153" t="s">
+        <v>50</v>
       </c>
       <c r="D153" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="E153" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F153" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:7" ht="37.5">
       <c r="B156" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D156" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="E156" t="s">
-        <v>342</v>
+        <v>215</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="B157" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" t="s">
+        <v>50</v>
+      </c>
+      <c r="D157" t="s">
+        <v>254</v>
+      </c>
+      <c r="E157" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>343</v>
-      </c>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:7">
+        <v>481</v>
+      </c>
+      <c r="B158" t="s">
+        <v>258</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" t="s">
+        <v>257</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="37.5">
       <c r="B159" t="s">
-        <v>344</v>
-      </c>
-      <c r="C159" t="s">
+        <v>260</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" t="s">
+        <v>259</v>
+      </c>
+      <c r="E159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="B160" t="s">
+        <v>260</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" t="s">
+        <v>262</v>
+      </c>
+      <c r="E160" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>271</v>
+      </c>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:7" ht="37.5">
+      <c r="B163" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" t="s">
+        <v>265</v>
+      </c>
+      <c r="E163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="B164" t="s">
+        <v>270</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="B165" t="s">
+        <v>269</v>
+      </c>
+      <c r="C165" t="s">
         <v>50</v>
       </c>
-      <c r="D159" t="s">
-        <v>345</v>
-      </c>
-      <c r="E159" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="37.5">
-      <c r="A160" t="s">
-        <v>527</v>
-      </c>
-      <c r="B160" t="s">
-        <v>349</v>
-      </c>
-      <c r="C160" s="11" t="s">
+      <c r="D165" t="s">
+        <v>268</v>
+      </c>
+      <c r="E165" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>280</v>
+      </c>
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>401</v>
+      </c>
+      <c r="B167" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D167" t="s">
+        <v>273</v>
+      </c>
+      <c r="E167" t="s">
+        <v>274</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="B168" t="s">
+        <v>275</v>
+      </c>
+      <c r="D168" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="37.5">
+      <c r="B169" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D160" t="s">
-        <v>347</v>
-      </c>
-      <c r="E160" t="s">
-        <v>348</v>
-      </c>
-      <c r="F160" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="37.5">
-      <c r="B161" t="s">
-        <v>350</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D161" t="s">
-        <v>351</v>
-      </c>
-      <c r="E161" t="s">
-        <v>352</v>
-      </c>
-      <c r="F161" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="B162" t="s">
-        <v>354</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162" t="s">
-        <v>355</v>
-      </c>
-      <c r="E162" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="B163" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D163" t="s">
-        <v>337</v>
-      </c>
-      <c r="E163" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>369</v>
-      </c>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" ht="37.5">
-      <c r="B166" t="s">
-        <v>360</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D166" t="s">
-        <v>361</v>
-      </c>
-      <c r="E166" t="s">
-        <v>362</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="37.5">
-      <c r="B167" t="s">
-        <v>363</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" t="s">
-        <v>364</v>
-      </c>
-      <c r="E167" t="s">
-        <v>365</v>
-      </c>
-      <c r="F167" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="C168" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D168" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="B169" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C169" t="s">
-        <v>326</v>
-      </c>
       <c r="D169" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="E169" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="C170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C170" t="s">
+        <v>50</v>
+      </c>
+      <c r="D170" t="s">
+        <v>279</v>
+      </c>
+      <c r="E170" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>371</v>
-      </c>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" ht="37.5">
-      <c r="B172" t="s">
-        <v>373</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D172" t="s">
-        <v>372</v>
-      </c>
-      <c r="E172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="B173" t="s">
-        <v>375</v>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>294</v>
+      </c>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:7" ht="37.5">
+      <c r="B173" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C173" t="s">
         <v>50</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>425</v>
-      </c>
-      <c r="B174" t="s">
-        <v>376</v>
-      </c>
-      <c r="C174" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E173" t="s">
+        <v>286</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="37.5">
+      <c r="B174" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>288</v>
+      </c>
+      <c r="E174" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>480</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E174" t="s">
-        <v>320</v>
-      </c>
-      <c r="G174" s="4" t="s">
+      <c r="D175" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E175" t="s">
+        <v>292</v>
+      </c>
+      <c r="F175" t="s">
+        <v>293</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="B175" t="s">
-        <v>377</v>
-      </c>
-      <c r="C175" t="s">
+    <row r="176" spans="1:7">
+      <c r="B176" s="3"/>
+      <c r="C176" s="11"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="11"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="B178" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C178" t="s">
         <v>50</v>
       </c>
-      <c r="D175" t="s">
-        <v>378</v>
-      </c>
-      <c r="E175" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="B176" t="s">
-        <v>380</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="D178" t="s">
+        <v>296</v>
+      </c>
+      <c r="E178" t="s">
+        <v>297</v>
+      </c>
+      <c r="F178" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="B179" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D176" t="s">
-        <v>381</v>
-      </c>
-      <c r="E176" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
-        <v>392</v>
-      </c>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" ht="37.5">
-      <c r="A179" t="s">
-        <v>417</v>
-      </c>
-      <c r="B179" t="s">
-        <v>382</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D179" t="s">
-        <v>383</v>
+        <v>302</v>
       </c>
       <c r="E179" t="s">
-        <v>384</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>530</v>
+        <v>303</v>
+      </c>
+      <c r="F179" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="B180" t="s">
-        <v>388</v>
+      <c r="B180" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C180" t="s">
         <v>50</v>
       </c>
       <c r="D180" t="s">
-        <v>385</v>
+        <v>301</v>
       </c>
       <c r="E180" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="B181" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C181" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C181" t="s">
+        <v>50</v>
+      </c>
+      <c r="D181" t="s">
+        <v>306</v>
+      </c>
+      <c r="E181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="B182" t="s">
+        <v>308</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" t="s">
+        <v>311</v>
+      </c>
+      <c r="E182" t="s">
+        <v>312</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>313</v>
+      </c>
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" ht="37.5">
+      <c r="B185" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D185" t="s">
+        <v>322</v>
+      </c>
+      <c r="E185" t="s">
+        <v>316</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="B186" s="3"/>
+      <c r="D186" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="B189" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C189" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" t="s">
+        <v>319</v>
+      </c>
+      <c r="E189" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="B190" s="3"/>
+      <c r="C190" t="s">
+        <v>326</v>
+      </c>
+      <c r="D190" t="s">
+        <v>323</v>
+      </c>
+      <c r="E190" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="B191" t="s">
+        <v>325</v>
+      </c>
+      <c r="C191" t="s">
+        <v>50</v>
+      </c>
+      <c r="D191" t="s">
+        <v>327</v>
+      </c>
+      <c r="E191" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="B192" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D181" t="s">
-        <v>381</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="D192" t="s">
+        <v>330</v>
+      </c>
+      <c r="E192" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="B193" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D193" t="s">
+        <v>333</v>
+      </c>
+      <c r="E193" t="s">
+        <v>334</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>336</v>
+      </c>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="B196" s="3">
+        <v>367</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D196" t="s">
+        <v>337</v>
+      </c>
+      <c r="E196" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="37.5">
-      <c r="B182" t="s">
-        <v>390</v>
-      </c>
-      <c r="C182" s="11" t="s">
+      <c r="F196" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>339</v>
+      </c>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:7" ht="37.5">
+      <c r="B199" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D182" t="s">
-        <v>391</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="D199" t="s">
+        <v>341</v>
+      </c>
+      <c r="E199" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="37.5">
-      <c r="B183" t="s">
-        <v>358</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D183" t="s">
-        <v>395</v>
-      </c>
-      <c r="E183" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="C184" s="11"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="C185" s="11"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" t="s">
-        <v>396</v>
-      </c>
-      <c r="C186" s="11"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="B187" t="s">
-        <v>397</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D187" t="s">
-        <v>399</v>
-      </c>
-      <c r="E187" t="s">
-        <v>386</v>
-      </c>
-      <c r="F187" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="B188" t="s">
-        <v>433</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D188" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>436</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>437</v>
-      </c>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" t="s">
-        <v>489</v>
-      </c>
-      <c r="B193" t="s">
-        <v>441</v>
-      </c>
-      <c r="C193" t="s">
-        <v>440</v>
-      </c>
-      <c r="D193" t="s">
-        <v>439</v>
-      </c>
-      <c r="F193" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="B194" t="s">
-        <v>442</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D194" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" t="s">
-        <v>438</v>
-      </c>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:6" ht="37.5">
-      <c r="B197" t="s">
-        <v>445</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D197" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="37.5">
-      <c r="B198" t="s">
-        <v>446</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D198" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="C199" s="11"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>404</v>
-      </c>
-      <c r="C201" t="s">
-        <v>50</v>
-      </c>
-      <c r="D201" t="s">
-        <v>51</v>
-      </c>
-      <c r="E201" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>343</v>
+      </c>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:7">
       <c r="B202" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="C202" t="s">
         <v>50</v>
       </c>
       <c r="D202" t="s">
+        <v>345</v>
+      </c>
+      <c r="E202" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="37.5">
+      <c r="A203" t="s">
+        <v>527</v>
+      </c>
+      <c r="B203" t="s">
+        <v>349</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D203" t="s">
+        <v>347</v>
+      </c>
+      <c r="E203" t="s">
+        <v>348</v>
+      </c>
+      <c r="F203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="37.5">
+      <c r="A204" t="s">
+        <v>532</v>
+      </c>
+      <c r="B204" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D204" t="s">
+        <v>351</v>
+      </c>
+      <c r="E204" t="s">
+        <v>352</v>
+      </c>
+      <c r="F204" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>531</v>
+      </c>
+      <c r="B205" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D205" t="s">
+        <v>355</v>
+      </c>
+      <c r="E205" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="B206" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D206" t="s">
+        <v>337</v>
+      </c>
+      <c r="E206" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>369</v>
+      </c>
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:7" ht="37.5">
+      <c r="B209" t="s">
+        <v>360</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D209" t="s">
+        <v>361</v>
+      </c>
+      <c r="E209" t="s">
+        <v>362</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="37.5">
+      <c r="B210" t="s">
+        <v>363</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" t="s">
+        <v>364</v>
+      </c>
+      <c r="E210" t="s">
+        <v>365</v>
+      </c>
+      <c r="F210" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="C211" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D211" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="B212" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C212" t="s">
+        <v>326</v>
+      </c>
+      <c r="D212" t="s">
+        <v>323</v>
+      </c>
+      <c r="E212" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>371</v>
+      </c>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:7" ht="37.5">
+      <c r="B215" t="s">
+        <v>373</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D215" t="s">
+        <v>372</v>
+      </c>
+      <c r="E215" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="B216" t="s">
+        <v>375</v>
+      </c>
+      <c r="C216" t="s">
+        <v>50</v>
+      </c>
+      <c r="D216" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E217" t="s">
+        <v>320</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="B218" t="s">
+        <v>377</v>
+      </c>
+      <c r="C218" t="s">
+        <v>50</v>
+      </c>
+      <c r="D218" t="s">
+        <v>378</v>
+      </c>
+      <c r="E218" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="B219" t="s">
+        <v>380</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D219" t="s">
+        <v>381</v>
+      </c>
+      <c r="E219" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>392</v>
+      </c>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:7" ht="37.5">
+      <c r="A222" t="s">
+        <v>417</v>
+      </c>
+      <c r="B222" t="s">
+        <v>382</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D222" t="s">
+        <v>383</v>
+      </c>
+      <c r="E222" t="s">
+        <v>384</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="B223" t="s">
+        <v>388</v>
+      </c>
+      <c r="C223" t="s">
+        <v>50</v>
+      </c>
+      <c r="D223" t="s">
+        <v>385</v>
+      </c>
+      <c r="E223" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="B224" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D224" t="s">
+        <v>381</v>
+      </c>
+      <c r="E224" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="37.5">
+      <c r="B225" t="s">
+        <v>390</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D225" t="s">
+        <v>391</v>
+      </c>
+      <c r="E225" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="37.5">
+      <c r="B226" t="s">
+        <v>358</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D226" t="s">
+        <v>395</v>
+      </c>
+      <c r="E226" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="C227" s="11"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="C228" s="11"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>396</v>
+      </c>
+      <c r="C229" s="11"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="B230" t="s">
+        <v>397</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D230" t="s">
+        <v>399</v>
+      </c>
+      <c r="E230" t="s">
+        <v>386</v>
+      </c>
+      <c r="F230" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="B231" t="s">
+        <v>433</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D231" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="C232" s="11"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>436</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>437</v>
+      </c>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>489</v>
+      </c>
+      <c r="B236" t="s">
+        <v>441</v>
+      </c>
+      <c r="C236" t="s">
+        <v>440</v>
+      </c>
+      <c r="D236" t="s">
+        <v>439</v>
+      </c>
+      <c r="F236" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="B237" t="s">
+        <v>442</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D237" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>438</v>
+      </c>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" ht="37.5">
+      <c r="B240" t="s">
+        <v>445</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D240" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="37.5">
+      <c r="B241" t="s">
+        <v>446</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D241" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="C242" s="11"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>404</v>
+      </c>
+      <c r="C244" t="s">
+        <v>50</v>
+      </c>
+      <c r="D244" t="s">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="B245" t="s">
+        <v>449</v>
+      </c>
+      <c r="C245" t="s">
+        <v>50</v>
+      </c>
+      <c r="D245" t="s">
         <v>450</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F245" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" t="s">
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
         <v>405</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D247" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" t="s">
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="2" customFormat="1">
-      <c r="B207" s="2" t="s">
+    <row r="250" spans="1:6" s="2" customFormat="1">
+      <c r="B250" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D250" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F250" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="37.5">
-      <c r="B208" s="2" t="s">
+    <row r="251" spans="1:6" s="2" customFormat="1" ht="37.5">
+      <c r="B251" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C251" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F251" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="37.5">
-      <c r="B209" s="2" t="s">
+    <row r="252" spans="1:6" s="2" customFormat="1" ht="37.5">
+      <c r="B252" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C252" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D252" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F252" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="2" customFormat="1">
-      <c r="B210" s="2" t="s">
+    <row r="253" spans="1:6" s="2" customFormat="1">
+      <c r="B253" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C253" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D253" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E253" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F253" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="3" customFormat="1"/>
-    <row r="212" spans="1:6">
-      <c r="A212" t="s">
+    <row r="254" spans="1:6" s="3" customFormat="1"/>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="37.5">
-      <c r="C213" s="5" t="s">
+    <row r="256" spans="1:6" ht="37.5">
+      <c r="C256" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D256" t="s">
         <v>57</v>
       </c>
-      <c r="F213" s="6" t="s">
+      <c r="F256" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="3" customFormat="1"/>
-    <row r="215" spans="1:6">
-      <c r="A215" t="s">
+    <row r="257" spans="1:7" s="3" customFormat="1"/>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="37.5">
-      <c r="B216" t="s">
+    <row r="259" spans="1:7" ht="37.5">
+      <c r="B259" t="s">
         <v>468</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C259" t="s">
         <v>422</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="F259" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" t="s">
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="2" customFormat="1">
-      <c r="B219" s="2" t="s">
+    <row r="262" spans="1:7" s="2" customFormat="1">
+      <c r="B262" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D262" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F219" s="2" t="s">
+      <c r="F262" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" t="s">
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
-      <c r="B222" t="s">
+    <row r="265" spans="1:7">
+      <c r="B265" t="s">
         <v>472</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C265" t="s">
         <v>422</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D265" t="s">
         <v>473</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E265" t="s">
         <v>474</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F265" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="3" customFormat="1"/>
-    <row r="224" spans="1:6">
-      <c r="A224" t="s">
+    <row r="266" spans="1:7" s="3" customFormat="1"/>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
-      <c r="C225" s="2" t="s">
+    <row r="268" spans="1:7">
+      <c r="C268" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D268" t="s">
         <v>34</v>
       </c>
-      <c r="F225" s="5"/>
-      <c r="G225" s="4" t="s">
+      <c r="F268" s="5"/>
+      <c r="G268" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="3" customFormat="1"/>
-    <row r="227" spans="1:7">
-      <c r="A227" t="s">
+    <row r="269" spans="1:7" s="3" customFormat="1"/>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
         <v>478</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D270" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
-      <c r="A228" t="s">
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
         <v>479</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D271" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
-      <c r="A229" t="s">
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
         <v>490</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D272" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
-      <c r="A230" t="s">
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
         <v>491</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D273" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
-      <c r="A231" t="s">
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
         <v>492</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D274" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="3" customFormat="1">
-      <c r="A232" t="s">
+    <row r="275" spans="1:7" s="3" customFormat="1">
+      <c r="A275" t="s">
         <v>510</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D275" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="3" customFormat="1">
-      <c r="A233" t="s">
+    <row r="276" spans="1:7" s="3" customFormat="1">
+      <c r="A276" t="s">
         <v>511</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C276" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E276" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F276" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="3" customFormat="1">
-      <c r="A234" t="s">
+    <row r="277" spans="1:7" s="3" customFormat="1">
+      <c r="A277" t="s">
         <v>517</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D277" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="3" customFormat="1">
-      <c r="A235" t="s">
+    <row r="278" spans="1:7" s="3" customFormat="1">
+      <c r="A278" t="s">
         <v>518</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D278" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="3" customFormat="1">
-      <c r="A236"/>
-      <c r="D236"/>
-    </row>
-    <row r="237" spans="1:7" s="3" customFormat="1">
-      <c r="A237"/>
-      <c r="D237"/>
-    </row>
-    <row r="238" spans="1:7" s="3" customFormat="1">
-      <c r="A238"/>
-      <c r="D238"/>
-    </row>
-    <row r="239" spans="1:7" s="3" customFormat="1">
-      <c r="D239"/>
-    </row>
-    <row r="240" spans="1:7" s="3" customFormat="1"/>
-    <row r="241" spans="1:7" s="16" customFormat="1"/>
-    <row r="242" spans="1:7">
-      <c r="A242" t="s">
+    <row r="279" spans="1:7" s="3" customFormat="1">
+      <c r="A279"/>
+      <c r="D279"/>
+    </row>
+    <row r="280" spans="1:7" s="3" customFormat="1">
+      <c r="A280"/>
+      <c r="D280"/>
+    </row>
+    <row r="281" spans="1:7" s="3" customFormat="1">
+      <c r="A281"/>
+      <c r="D281"/>
+    </row>
+    <row r="282" spans="1:7" s="3" customFormat="1">
+      <c r="D282"/>
+    </row>
+    <row r="283" spans="1:7" s="3" customFormat="1"/>
+    <row r="284" spans="1:7" s="16" customFormat="1"/>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
-      <c r="A243" t="s">
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
         <v>402</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B286" t="s">
         <v>92</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D286" t="s">
         <v>403</v>
       </c>
-      <c r="G243" s="4" t="s">
+      <c r="G286" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="16" customFormat="1"/>
-    <row r="246" spans="1:7">
-      <c r="A246" s="3" t="s">
+    <row r="287" spans="1:7" s="16" customFormat="1"/>
+    <row r="289" spans="1:5">
+      <c r="A289" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D289" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="3"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="3" t="s">
+    <row r="290" spans="1:5">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D291" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="3" t="s">
+    <row r="292" spans="1:5">
+      <c r="A292" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D292" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="3" t="s">
+    <row r="293" spans="1:5">
+      <c r="A293" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D293" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="3" t="s">
+    <row r="294" spans="1:5">
+      <c r="A294" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D294" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="3" customFormat="1">
-      <c r="A252" s="3" t="s">
+    <row r="295" spans="1:5" s="3" customFormat="1">
+      <c r="A295" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C295" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E295" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="3" customFormat="1">
-      <c r="A253" s="3" t="s">
+    <row r="296" spans="1:5" s="3" customFormat="1">
+      <c r="A296" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D296" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="3" t="s">
+    <row r="297" spans="1:5">
+      <c r="A297" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" t="s">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="3" t="s">
+    <row r="298" spans="1:5">
+      <c r="A298" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284">
+    <row r="327" spans="1:4">
+      <c r="A327">
         <v>198802</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D327" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285">
+    <row r="328" spans="1:4">
+      <c r="A328">
         <v>198807</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D328" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286">
+    <row r="329" spans="1:4">
+      <c r="A329">
         <v>198812</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D329" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287">
+    <row r="330" spans="1:4">
+      <c r="A330">
         <v>198906</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D330" t="s">
         <v>406</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I287" xr:uid="{C468A857-313C-4542-8603-01AD16624C86}"/>
+  <autoFilter ref="A44:I330" xr:uid="{C468A857-313C-4542-8603-01AD16624C86}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6247,7 +6743,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6319,5 +6815,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>